--- a/distancias.xlsx
+++ b/distancias.xlsx
@@ -33,9 +33,6 @@
     <t>Cartagena</t>
   </si>
   <si>
-    <t>Caldas</t>
-  </si>
-  <si>
     <t>Monteria</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Distancia</t>
+  </si>
+  <si>
+    <t>Manizales</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -424,34 +424,34 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -481,11 +481,9 @@
         <v>804</v>
       </c>
       <c r="H2" s="1">
-        <f>B8</f>
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1">
-        <f>H2</f>
         <v>268</v>
       </c>
       <c r="J2" s="1">
@@ -544,11 +542,9 @@
         <v>657</v>
       </c>
       <c r="H3" s="1">
-        <f>C8</f>
-        <v>702</v>
+        <v>894</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I16" si="0">H3</f>
         <v>702</v>
       </c>
       <c r="J3" s="1">
@@ -568,11 +564,11 @@
         <v>1631</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="1">C3</f>
+        <f t="shared" ref="N3:N8" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O8" si="2">K3</f>
+        <f t="shared" ref="O3:O8" si="1">K3</f>
         <v>1252</v>
       </c>
       <c r="P3" s="1">
@@ -582,7 +578,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>282</v>
@@ -606,11 +602,9 @@
         <v>557</v>
       </c>
       <c r="H4" s="1">
-        <f>D8</f>
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
         <v>443</v>
       </c>
       <c r="J4" s="1">
@@ -630,11 +624,11 @@
         <v>845</v>
       </c>
       <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>979</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="1"/>
-        <v>979</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="P4" s="1">
@@ -667,11 +661,9 @@
         <v>198</v>
       </c>
       <c r="H5" s="1">
-        <f>E8</f>
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
         <v>404</v>
       </c>
       <c r="J5" s="1">
@@ -691,11 +683,11 @@
         <v>1140</v>
       </c>
       <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>585</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="2"/>
         <v>769</v>
       </c>
       <c r="P5" s="1">
@@ -727,11 +719,9 @@
         <v>731</v>
       </c>
       <c r="H6" s="1">
-        <f>F8</f>
-        <v>640</v>
+        <v>831</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="J6" s="1">
@@ -751,11 +741,11 @@
         <v>1434</v>
       </c>
       <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
         <v>1063</v>
       </c>
       <c r="P6" s="1">
@@ -765,7 +755,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>804</v>
@@ -786,11 +776,9 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>G8</f>
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
         <v>598</v>
       </c>
       <c r="J7" s="1">
@@ -810,11 +798,11 @@
         <v>1329</v>
       </c>
       <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>657</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="2"/>
         <v>954</v>
       </c>
       <c r="P7" s="1">
@@ -824,130 +812,110 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1">
-        <v>702</v>
+        <v>894</v>
       </c>
       <c r="D8" s="1">
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="F8" s="1">
-        <v>640</v>
+        <v>831</v>
       </c>
       <c r="G8" s="1">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>194</v>
+      </c>
+      <c r="J8" s="1">
+        <v>600</v>
+      </c>
+      <c r="K8" s="1">
+        <v>258</v>
+      </c>
+      <c r="L8" s="1">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1">
+        <v>424</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f>H10</f>
-        <v>405</v>
-      </c>
-      <c r="K8" s="1">
-        <f>H11</f>
-        <v>425</v>
-      </c>
-      <c r="L8" s="1">
-        <f>H12</f>
-        <v>215</v>
-      </c>
-      <c r="M8" s="1">
-        <f>H13</f>
-        <v>802</v>
-      </c>
-      <c r="N8" s="1">
+        <v>894</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>702</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="2"/>
-        <v>425</v>
+        <v>258</v>
       </c>
       <c r="P8" s="1">
         <f>H16</f>
-        <v>745</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <f>B8</f>
         <v>268</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:P9" si="3">C8</f>
         <v>702</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
         <v>443</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
         <v>404</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
         <v>640</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
         <v>598</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I9" s="1">
-        <f>I8</f>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
         <v>802</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
         <v>702</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
         <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>663</v>
@@ -968,10 +936,9 @@
         <v>795</v>
       </c>
       <c r="H10" s="1">
-        <v>405</v>
+        <v>600</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="J10" s="1">
@@ -1004,7 +971,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>180</v>
@@ -1025,10 +992,9 @@
         <v>954</v>
       </c>
       <c r="H11" s="1">
-        <v>425</v>
+        <v>258</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="J11" s="1">
@@ -1046,11 +1012,11 @@
         <v>388</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N13" si="4">C11</f>
+        <f t="shared" ref="N11:N13" si="2">C11</f>
         <v>1252</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O13" si="5">K11</f>
+        <f t="shared" ref="O11:O13" si="3">K11</f>
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -1060,7 +1026,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>48</v>
@@ -1081,10 +1047,9 @@
         <v>747</v>
       </c>
       <c r="H12" s="1">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="J12" s="1">
@@ -1101,11 +1066,11 @@
         <v>582</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="P12" s="1">
@@ -1115,7 +1080,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>559</v>
@@ -1136,10 +1101,9 @@
         <v>1329</v>
       </c>
       <c r="H13" s="1">
-        <v>802</v>
+        <v>424</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
         <v>802</v>
       </c>
       <c r="J13" s="1">
@@ -1155,11 +1119,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1631</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>388</v>
       </c>
       <c r="P13" s="1">
@@ -1169,7 +1133,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>138800</v>
@@ -1182,57 +1146,56 @@
         <v>979</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:P14" si="6">E3</f>
+        <f t="shared" ref="E14:P14" si="4">E3</f>
         <v>585</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>657</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
+        <v>894</v>
+      </c>
+      <c r="I14" s="1">
         <v>702</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>702</v>
-      </c>
       <c r="J14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>353</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1252</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1631</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1252</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>49600</v>
@@ -1245,57 +1208,56 @@
         <v>464</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:P15" si="7">E11</f>
+        <f t="shared" ref="E15:P15" si="5">E11</f>
         <v>769</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1063</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>954</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="I15" s="1">
         <v>425</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
       <c r="J15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>825</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>388</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1252</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1116</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>949</v>
@@ -1316,10 +1278,9 @@
         <v>525</v>
       </c>
       <c r="H16" s="1">
-        <v>745</v>
+        <v>860</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
         <v>745</v>
       </c>
       <c r="J16" s="1">
